--- a/Logs/Conescapan/vuelta1.xlsx
+++ b/Logs/Conescapan/vuelta1.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB720B-530A-4F4E-93E8-1F7DB16C3ED7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48C816-932D-4046-A5A4-F13DF554FD90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="reg0" sheetId="2" r:id="rId2"/>
+    <sheet name="reg1" sheetId="3" r:id="rId3"/>
+    <sheet name="reg2" sheetId="4" r:id="rId4"/>
+    <sheet name="reg3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,6 +95,6354 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$1:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="154"/>
+                <c:pt idx="0">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0234220000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0234179999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0234129999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0234059999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0234000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0233939999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0233869999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0233790000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0233720000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0233659999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0233600000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0233530000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0233460000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.023339</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0233310000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0233240000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0233159999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0233080000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0233019999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0232960000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0232890000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0232810000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0232729999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0232679999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0232620000000008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0232559999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0232480000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0232399999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0232329999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0232259999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0232170000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0232109999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0232039999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0231960000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0231899999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0231829999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0231750000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0231670000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0231600000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0231519999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0231440000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0231370000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0231300000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.023123</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.0231159999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.0231089999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.0231010000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.0230929999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.0230870000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0230809999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0230750000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.0230689999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.0230619999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.0230580000000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.0230519999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.023047</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0230440000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.0230399999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.0230340000000009</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.0230270000000008</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.0230219999999992</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.0230169999999994</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0230099999999993</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.0230040000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.0229990000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0229940000000006</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0229870000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.0229800000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.0229719999999993</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.0229649999999992</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.0229590000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0229549999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.0229490000000006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.0229429999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0229370000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.0229280000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.0229210000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0229140000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.0229099999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.0229049999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.0229029999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.0229020000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.0229009999999992</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.0229049999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0229099999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0229160000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.0229210000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.0229250000000008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.0229309999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.0229370000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.022945</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.0229529999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.0229619999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.0229700000000008</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.0229789999999994</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.0229859999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.0229949999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.0230040000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.0230119999999996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.0230189999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.0230270000000008</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.0230379999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.0230479999999993</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.0230569999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.0230669999999993</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.0230770000000007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.0230879999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.0230979999999992</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.0231069999999995</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.0231169999999992</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.0231279999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.0231399999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.0231519999999996</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.023161</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.0231700000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.0231759999999994</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.0231770000000004</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.0231759999999994</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.0231759999999994</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.0231750000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.0231790000000007</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.0231829999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.0231890000000003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.0231969999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.0232030000000005</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.0232109999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.0232189999999992</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.0232279999999996</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.023237</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.023244</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.0232539999999997</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.023263</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.0232740000000007</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.0232840000000003</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.0232949999999992</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.0233050000000006</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.0233150000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.0233240000000006</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.0233349999999994</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.0233460000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.0233570000000007</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9.0233670000000004</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.0233760000000007</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.0233830000000008</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9.0233899999999991</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9.0233989999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.0234070000000006</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9.0234120000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$B$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="154"/>
+                <c:pt idx="0">
+                  <c:v>-79.531702999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531704000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.531702999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.531704000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.531704000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531702999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531701999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.531700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531696999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531694000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531682000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531677000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531666000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531660000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531655999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531653000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531648000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531644999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531639999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531636000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531632000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531627999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.531622999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531617999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531614000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531609000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-79.531604000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-79.531599999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79.531593000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79.531587000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-79.531580000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-79.531572999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79.531565000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-79.531557000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-79.531548000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79.531542000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-79.531537999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-79.531533999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-79.531531000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-79.531531000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-79.531532999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-79.531536000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-79.531537999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-79.531540000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-79.531542999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-79.531548000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-79.531555999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-79.531563000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-79.531567999999993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-79.531572999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-79.531578999999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-79.531583999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-79.531588999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-79.531595999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-79.531602000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-79.531608000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-79.531614000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-79.531616</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-79.531621999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-79.531627</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-79.531631000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-79.531636000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-79.531638999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-79.531643000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-79.531645999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-79.531651999999994</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-79.531656999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-79.531662999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-79.531667999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-79.531673999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-79.531679999999994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-79.531684999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-79.531689999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-79.531696999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-79.531705000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-79.531710000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-79.531717999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-79.531724999999994</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-79.531732000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-79.531739999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-79.531745999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-79.531752999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-79.531757999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-79.531762999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-79.531763999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-79.531764999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-79.531766000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-79.531768999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-79.531771000000006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-79.531773999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-79.531775999999994</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-79.531777000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-79.531778000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-79.531780999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-79.531784000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-79.531788000000006</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-79.531790999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-79.531794000000005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-79.531796999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-79.531800000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-79.531801999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-79.531805000000006</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-79.531807999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-79.531808999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-79.531809999999993</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-79.531813</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-79.531816000000006</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-79.531818999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-79.531822000000005</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-79.531823000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-79.531824999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-79.531827000000007</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-79.531829999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-79.531830999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-79.531831999999994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-79.531833000000006</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-79.531831999999994</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-79.531833000000006</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-79.531835000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-79.531837999999993</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-79.531841</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-79.531845000000004</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-79.531846999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-79.531847999999997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-79.531848999999994</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-79.531845000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-79.531840000000003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-79.531833000000006</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-79.531825999999995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-79.531819999999996</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-79.531814999999995</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-79.531809999999993</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-79.531803999999994</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-79.531796</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-79.531790999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-79.531786999999994</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-79.531779999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-79.531773000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-79.531768</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-79.531760000000006</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-79.531752999999995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-79.531744000000003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-79.531737000000007</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-79.531734</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-79.531729999999996</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-79.531726000000006</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-79.531721000000005</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-79.531717</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-79.531711000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-79.531707999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-79.531706</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-79.531706999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A120-47BA-ABDE-64FD1A3CB39D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1128461263"/>
+        <c:axId val="1206315679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1128461263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1206315679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1206315679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128461263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>reg3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$127:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>9.0231790000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0231829999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0231890000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0231969999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0232030000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0232109999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0232189999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0232279999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.023237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.023244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0232539999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.023263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0232740000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0232840000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0232949999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0233050000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0233150000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0233240000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0233349999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0233460000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0233570000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0233670000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0233760000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0233830000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0233899999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0233989999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0234070000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0234120000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$127:$B$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-79.531848999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531845000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.531840000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.531833000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.531825999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531819999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531814999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.531809999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531803999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531790999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531786999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531779999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531773000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531760000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531752999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531744000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531737000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531734</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531729999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531726000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531721000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531717</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.531711000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531707999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531706</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531706999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACB8-4C43-8A1B-94EB5661F305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328793279"/>
+        <c:axId val="1207451823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328793279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1207451823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1207451823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328793279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>reg0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$88:$A$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>9.0229020000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0229009999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0229049999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0229099999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0229160000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0229210000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0229250000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0229309999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0229370000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.022945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0229529999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0229619999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0229700000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0229789999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0229859999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0229949999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0230040000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0230119999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0230189999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0230270000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0230379999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0230479999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0230569999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0230669999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0230770000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0230879999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0230979999999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0231069999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0231169999999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0231279999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0231399999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0231519999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.023161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0231700000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0231759999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0231770000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0231759999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0231759999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0231750000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$88:$B$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>-79.531764999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531766000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.531768999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.531771000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.531773999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531775999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531777000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.531778000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531780999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531784000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531788000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531790999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531794000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531796999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531800000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531801999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531805000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531807999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531808999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531809999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531813</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531816000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531818999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531822000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.531823000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531824999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531827000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531829999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-79.531830999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-79.531831999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79.531833000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79.531831999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-79.531833000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-79.531835000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79.531837999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-79.531841</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-79.531845000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79.531846999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-79.531847999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6358-4F29-AAD2-A1BBE9B6B770}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328798079"/>
+        <c:axId val="1209040463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328798079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1209040463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1209040463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328798079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>reg1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$40:$A$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>9.0231960000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0231899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0231829999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0231750000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0231670000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0231600000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0231519999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0231440000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0231370000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0231300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.023123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0231159999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0231089999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0231010000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0230929999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0230870000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0230809999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0230750000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0230689999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0230619999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0230580000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0230519999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.023047</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0230440000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0230399999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0230340000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0230270000000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0230219999999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0230169999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0230099999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0230040000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0229990000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0229940000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0229870000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0229800000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0229719999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0229649999999992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0229590000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0229549999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0229490000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0229429999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0229370000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0229280000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0229210000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0229140000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0229099999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0229049999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0229029999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$40:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>-79.531533999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531531000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.531531000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.531532999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.531536000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531537999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531540000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.531542999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531548000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531555999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531563000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531567999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531572999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531578999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531583999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531588999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531595999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531602000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531608000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531614000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531616</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531621999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531627</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531631000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.531636000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531638999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531643000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531645999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-79.531651999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-79.531656999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79.531662999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79.531667999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-79.531673999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-79.531679999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79.531684999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-79.531689999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-79.531696999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79.531705000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-79.531710000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-79.531717999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-79.531724999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-79.531732000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-79.531739999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-79.531745999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-79.531752999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-79.531757999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-79.531762999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-79.531763999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EEE-4626-AE2A-CE43B32131C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328794079"/>
+        <c:axId val="1338363775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328794079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1338363775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1338363775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328794079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>reg2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$1:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0234249999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0234220000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0234179999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0234129999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0234059999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0234000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0233939999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0233869999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0233790000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0233720000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0233659999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0233600000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0233530000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0233460000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.023339</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0233310000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0233240000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0233159999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0233080000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0233019999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0232960000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0232890000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0232810000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0232729999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0232679999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0232620000000008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0232559999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0232480000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0232399999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0232329999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0232259999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0232170000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0232109999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0232039999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>-79.531702999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531704000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.531702999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.531704000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.531704000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531702999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531701999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.531700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531696999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531694000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531682000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531677000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531666000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531660000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531655999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531653000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531648000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531644999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531639999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531636000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531632000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531627999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.531622999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531617999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531614000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531609000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-79.531604000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-79.531599999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79.531593000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79.531587000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-79.531580000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-79.531572999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79.531565000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-79.531557000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-79.531548000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79.531542000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-79.531537999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-557E-4066-8F87-D61A586169A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1328798079"/>
+        <c:axId val="1338373343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1328798079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1338373343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1338373343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328798079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>121442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB410E52-FBAA-4DE7-8E44-D4E4CB6FFFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>111918</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>414336</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>45241</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8968D017-10BE-4391-8D4A-A0583332BDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595311</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>111916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290511</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>54767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E605CD-50BA-4DE0-86AB-B2452BA06639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121442</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43612C96-0AEE-4E5C-980C-184BA72A44E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>192881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B7693C-76F4-46C6-BD3A-1E1F70C79E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,8 +6710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B154" sqref="A127:B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,5 +7951,1298 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB068D-30FA-4EAB-858D-4061F4E698A8}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>9.0229020000000002</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-79.531764999999993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9.0229009999999992</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-79.531766000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9.0229049999999997</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-79.531768999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9.0229099999999995</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-79.531771000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9.0229160000000004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-79.531773999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9.0229210000000002</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-79.531775999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>9.0229250000000008</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-79.531777000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9.0229309999999998</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-79.531778000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9.0229370000000007</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-79.531780999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9.022945</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-79.531784000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9.0229529999999993</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-79.531788000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9.0229619999999997</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-79.531790999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9.0229700000000008</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-79.531794000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9.0229789999999994</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-79.531796999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>9.0229859999999995</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-79.531800000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>9.0229949999999999</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-79.531801999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>9.0230040000000002</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-79.531805000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9.0230119999999996</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-79.531807999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>9.0230189999999997</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-79.531808999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9.0230270000000008</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-79.531809999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>9.0230379999999997</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-79.531813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9.0230479999999993</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-79.531816000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>9.0230569999999997</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-79.531818999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>9.0230669999999993</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-79.531822000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9.0230770000000007</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-79.531823000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>9.0230879999999996</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-79.531824999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>9.0230979999999992</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-79.531827000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>9.0231069999999995</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-79.531829999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>9.0231169999999992</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-79.531830999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>9.0231279999999998</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-79.531831999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9.0231399999999997</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-79.531833000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>9.0231519999999996</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-79.531831999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>9.023161</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-79.531833000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>9.0231700000000004</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-79.531835000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>9.0231759999999994</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-79.531837999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>9.0231770000000004</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-79.531841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>9.0231759999999994</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-79.531845000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>9.0231759999999994</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-79.531846999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>9.0231750000000002</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-79.531847999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8D0C7C-6DDF-4DAA-A3F2-40296AA061F1}">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>9.0231960000000004</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-79.531533999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9.0231899999999996</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-79.531531000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9.0231829999999995</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-79.531531000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9.0231750000000002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-79.531532999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9.0231670000000008</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-79.531536000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9.0231600000000007</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-79.531537999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>9.0231519999999996</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-79.531540000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9.0231440000000003</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-79.531542999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9.0231370000000002</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-79.531548000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9.0231300000000001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-79.531555999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9.023123</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-79.531563000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9.0231159999999999</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-79.531567999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9.0231089999999998</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-79.531572999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9.0231010000000005</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-79.531578999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>9.0230929999999994</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-79.531583999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>9.0230870000000003</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-79.531588999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>9.0230809999999995</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-79.531595999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9.0230750000000004</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-79.531602000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>9.0230689999999996</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-79.531608000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9.0230619999999995</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-79.531614000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>9.0230580000000007</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-79.531616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9.0230519999999999</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-79.531621999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>9.023047</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-79.531627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>9.0230440000000005</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-79.531631000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9.0230399999999999</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-79.531636000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>9.0230340000000009</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-79.531638999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>9.0230270000000008</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-79.531643000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>9.0230219999999992</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-79.531645999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>9.0230169999999994</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-79.531651999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>9.0230099999999993</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-79.531656999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9.0230040000000002</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-79.531662999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>9.0229990000000004</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-79.531667999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>9.0229940000000006</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-79.531673999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>9.0229870000000005</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-79.531679999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>9.0229800000000004</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-79.531684999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>9.0229719999999993</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-79.531689999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>9.0229649999999992</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-79.531696999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>9.0229590000000002</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-79.531705000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>9.0229549999999996</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-79.531710000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>9.0229490000000006</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-79.531717999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>9.0229429999999997</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-79.531724999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>9.0229370000000007</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-79.531732000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>9.0229280000000003</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-79.531739999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>9.0229210000000002</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-79.531745999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>9.0229140000000001</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-79.531752999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>9.0229099999999995</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-79.531757999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>9.0229049999999997</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-79.531762999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>9.0229029999999995</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-79.531763999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11AC989-70A6-4F3F-A996-930BEB9204A9}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>9.0234249999999996</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-79.531702999999993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9.0234249999999996</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-79.531704000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9.0234249999999996</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-79.531702999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9.0234249999999996</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-79.531704000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9.0234249999999996</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-79.531704000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9.0234249999999996</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-79.531702999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>9.0234220000000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-79.531701999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9.0234179999999995</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-79.531700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9.0234129999999997</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-79.531696999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9.0234059999999996</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-79.531694000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9.0234000000000005</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-79.531689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9.0233939999999997</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-79.531682000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9.0233869999999996</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-79.531677000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9.0233790000000003</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-79.531672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>9.0233720000000002</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-79.531666000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>9.0233659999999993</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-79.531660000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>9.0233600000000003</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-79.531655999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9.0233530000000002</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-79.531653000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>9.0233460000000001</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-79.531648000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9.023339</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-79.531644999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>9.0233310000000007</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-79.531639999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9.0233240000000006</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-79.531636000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>9.0233159999999994</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-79.531632000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>9.0233080000000001</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-79.531627999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9.0233019999999993</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-79.531622999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>9.0232960000000002</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-79.531617999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>9.0232890000000001</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-79.531614000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>9.0232810000000008</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-79.531609000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>9.0232729999999997</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-79.531604000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>9.0232679999999998</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-79.531599999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9.0232620000000008</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-79.531593000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>9.0232559999999999</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-79.531587000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>9.0232480000000006</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-79.531580000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>9.0232399999999995</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-79.531572999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>9.0232329999999994</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-79.531565000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>9.0232259999999993</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-79.531557000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>9.0232170000000007</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-79.531548000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>9.0232109999999999</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-79.531542000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>9.0232039999999998</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-79.531537999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCA7FCB-4129-452D-97BB-C333A8312C34}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>9.0231790000000007</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-79.531848999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9.0231829999999995</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-79.531845000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9.0231890000000003</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-79.531840000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9.0231969999999997</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-79.531833000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9.0232030000000005</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-79.531825999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9.0232109999999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-79.531819999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>9.0232189999999992</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-79.531814999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9.0232279999999996</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-79.531809999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9.023237</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-79.531803999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9.023244</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-79.531796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9.0232539999999997</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-79.531790999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9.023263</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-79.531786999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9.0232740000000007</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-79.531779999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9.0232840000000003</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-79.531773000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>9.0232949999999992</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-79.531768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>9.0233050000000006</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-79.531760000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>9.0233150000000002</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-79.531752999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9.0233240000000006</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-79.531744000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>9.0233349999999994</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-79.531737000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9.0233460000000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-79.531734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>9.0233570000000007</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-79.531729999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9.0233670000000004</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-79.531726000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>9.0233760000000007</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-79.531721000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>9.0233830000000008</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-79.531717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9.0233899999999991</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-79.531711000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>9.0233989999999995</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-79.531707999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>9.0234070000000006</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-79.531706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>9.0234120000000004</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-79.531706999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>